--- a/data/processed/diccionario_datos_iter_00CSV20_modified.xlsx
+++ b/data/processed/diccionario_datos_iter_00CSV20_modified.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://winliveudlap-my.sharepoint.com/personal/marco_bravoml_udlap_mx/Documents/Documents/MDS/Block 6/DSCI 532/DSCI_532_individual-assignment_marcony1/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0718C61D-7051-43B4-B282-1FB5599B1572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{0718C61D-7051-43B4-B282-1FB5599B1572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D18DB27E-3226-41DF-8679-8D46D89EBA1D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario_datos_iter_00CSV20" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">diccionario_datos_iter_00CSV20!$A$5:$F$291</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2662,7 +2665,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3250,7 +3253,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3579,11 +3591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3648,6 +3660,9 @@
       <c r="F6">
         <v>2</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -3668,6 +3683,9 @@
       <c r="F7">
         <v>50</v>
       </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -3688,6 +3706,9 @@
       <c r="F8">
         <v>3</v>
       </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
@@ -3711,6 +3732,9 @@
       <c r="F9">
         <v>50</v>
       </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -3731,6 +3755,9 @@
       <c r="F10">
         <v>4</v>
       </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -3751,6 +3778,9 @@
       <c r="F11">
         <v>70</v>
       </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -3771,6 +3801,9 @@
       <c r="F12">
         <v>16</v>
       </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -3791,6 +3824,9 @@
       <c r="F13">
         <v>15</v>
       </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -3810,6 +3846,9 @@
       </c>
       <c r="F14">
         <v>4</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -3831,6 +3870,9 @@
       <c r="F15">
         <v>9</v>
       </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -3851,8 +3893,11 @@
       <c r="F16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3871,8 +3916,11 @@
       <c r="F17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3891,8 +3939,11 @@
       <c r="F18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3911,8 +3962,11 @@
       <c r="F19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3931,8 +3985,11 @@
       <c r="F20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>7</v>
       </c>
@@ -3951,8 +4008,11 @@
       <c r="F21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3971,8 +4031,11 @@
       <c r="F22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3991,8 +4054,11 @@
       <c r="F23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>10</v>
       </c>
@@ -4011,8 +4077,11 @@
       <c r="F24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>11</v>
       </c>
@@ -4031,8 +4100,11 @@
       <c r="F25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>12</v>
       </c>
@@ -4051,8 +4123,11 @@
       <c r="F26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>13</v>
       </c>
@@ -4071,8 +4146,11 @@
       <c r="F27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>14</v>
       </c>
@@ -4091,8 +4169,11 @@
       <c r="F28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>15</v>
       </c>
@@ -4111,8 +4192,11 @@
       <c r="F29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>16</v>
       </c>
@@ -4131,8 +4215,11 @@
       <c r="F30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>17</v>
       </c>
@@ -4151,8 +4238,11 @@
       <c r="F31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>18</v>
       </c>
@@ -4171,8 +4261,11 @@
       <c r="F32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>19</v>
       </c>
@@ -4191,8 +4284,11 @@
       <c r="F33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>20</v>
       </c>
@@ -4211,8 +4307,11 @@
       <c r="F34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>21</v>
       </c>
@@ -4231,8 +4330,11 @@
       <c r="F35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>22</v>
       </c>
@@ -4251,8 +4353,11 @@
       <c r="F36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>23</v>
       </c>
@@ -4271,8 +4376,11 @@
       <c r="F37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>24</v>
       </c>
@@ -4291,8 +4399,11 @@
       <c r="F38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>25</v>
       </c>
@@ -4311,8 +4422,11 @@
       <c r="F39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>26</v>
       </c>
@@ -4331,8 +4445,11 @@
       <c r="F40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>27</v>
       </c>
@@ -4351,8 +4468,11 @@
       <c r="F41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>28</v>
       </c>
@@ -4371,8 +4491,11 @@
       <c r="F42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>29</v>
       </c>
@@ -4391,8 +4514,11 @@
       <c r="F43">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>30</v>
       </c>
@@ -4411,8 +4537,11 @@
       <c r="F44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>31</v>
       </c>
@@ -4431,8 +4560,11 @@
       <c r="F45">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>32</v>
       </c>
@@ -4451,8 +4583,11 @@
       <c r="F46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>33</v>
       </c>
@@ -4471,8 +4606,11 @@
       <c r="F47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>34</v>
       </c>
@@ -4491,8 +4629,11 @@
       <c r="F48">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>35</v>
       </c>
@@ -4511,8 +4652,11 @@
       <c r="F49">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>36</v>
       </c>
@@ -4531,8 +4675,11 @@
       <c r="F50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>37</v>
       </c>
@@ -4551,8 +4698,11 @@
       <c r="F51">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>38</v>
       </c>
@@ -4571,8 +4721,11 @@
       <c r="F52">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>39</v>
       </c>
@@ -4591,8 +4744,11 @@
       <c r="F53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>40</v>
       </c>
@@ -4611,8 +4767,11 @@
       <c r="F54">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>41</v>
       </c>
@@ -4631,8 +4790,11 @@
       <c r="F55">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>42</v>
       </c>
@@ -4651,8 +4813,11 @@
       <c r="F56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>43</v>
       </c>
@@ -4671,8 +4836,11 @@
       <c r="F57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>44</v>
       </c>
@@ -4691,8 +4859,11 @@
       <c r="F58">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>45</v>
       </c>
@@ -4711,8 +4882,11 @@
       <c r="F59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>46</v>
       </c>
@@ -4731,8 +4905,11 @@
       <c r="F60">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>47</v>
       </c>
@@ -4751,8 +4928,11 @@
       <c r="F61">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>48</v>
       </c>
@@ -4771,8 +4951,11 @@
       <c r="F62">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>49</v>
       </c>
@@ -4791,8 +4974,11 @@
       <c r="F63">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>50</v>
       </c>
@@ -4811,8 +4997,11 @@
       <c r="F64">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>51</v>
       </c>
@@ -4831,8 +5020,11 @@
       <c r="F65">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>52</v>
       </c>
@@ -4851,8 +5043,11 @@
       <c r="F66">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>53</v>
       </c>
@@ -4871,8 +5066,11 @@
       <c r="F67">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>54</v>
       </c>
@@ -4891,8 +5089,11 @@
       <c r="F68">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>55</v>
       </c>
@@ -4911,8 +5112,11 @@
       <c r="F69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>56</v>
       </c>
@@ -4931,8 +5135,11 @@
       <c r="F70">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>57</v>
       </c>
@@ -4951,8 +5158,11 @@
       <c r="F71">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>58</v>
       </c>
@@ -4971,8 +5181,11 @@
       <c r="F72">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>59</v>
       </c>
@@ -4991,8 +5204,11 @@
       <c r="F73">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>60</v>
       </c>
@@ -5011,8 +5227,11 @@
       <c r="F74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>61</v>
       </c>
@@ -5031,8 +5250,11 @@
       <c r="F75">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>62</v>
       </c>
@@ -5051,8 +5273,11 @@
       <c r="F76">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G76">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>63</v>
       </c>
@@ -5071,8 +5296,11 @@
       <c r="F77">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>64</v>
       </c>
@@ -5091,8 +5319,11 @@
       <c r="F78">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>65</v>
       </c>
@@ -5111,8 +5342,11 @@
       <c r="F79">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>66</v>
       </c>
@@ -5131,8 +5365,11 @@
       <c r="F80">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>67</v>
       </c>
@@ -5151,8 +5388,11 @@
       <c r="F81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G81">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>68</v>
       </c>
@@ -5171,8 +5411,11 @@
       <c r="F82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G82">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>69</v>
       </c>
@@ -5191,8 +5434,11 @@
       <c r="F83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G83">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>70</v>
       </c>
@@ -5211,8 +5457,11 @@
       <c r="F84">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G84">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>71</v>
       </c>
@@ -5231,8 +5480,11 @@
       <c r="F85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G85">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>72</v>
       </c>
@@ -5251,8 +5503,11 @@
       <c r="F86">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G86">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>73</v>
       </c>
@@ -5271,8 +5526,11 @@
       <c r="F87">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G87">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>74</v>
       </c>
@@ -5291,8 +5549,11 @@
       <c r="F88">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G88">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>75</v>
       </c>
@@ -5311,8 +5572,11 @@
       <c r="F89">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G89">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>76</v>
       </c>
@@ -5331,8 +5595,11 @@
       <c r="F90">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G90">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>77</v>
       </c>
@@ -5351,8 +5618,11 @@
       <c r="F91">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G91">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>78</v>
       </c>
@@ -5371,8 +5641,11 @@
       <c r="F92">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G92">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>79</v>
       </c>
@@ -5391,8 +5664,11 @@
       <c r="F93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G93">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>80</v>
       </c>
@@ -5411,8 +5687,11 @@
       <c r="F94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G94">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>81</v>
       </c>
@@ -5431,8 +5710,11 @@
       <c r="F95">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G95">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>82</v>
       </c>
@@ -5451,8 +5733,11 @@
       <c r="F96">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G96">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>83</v>
       </c>
@@ -5471,8 +5756,11 @@
       <c r="F97">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>84</v>
       </c>
@@ -5491,8 +5779,11 @@
       <c r="F98">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G98">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>85</v>
       </c>
@@ -5511,8 +5802,11 @@
       <c r="F99">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>86</v>
       </c>
@@ -5531,8 +5825,11 @@
       <c r="F100">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>87</v>
       </c>
@@ -5551,8 +5848,11 @@
       <c r="F101">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>88</v>
       </c>
@@ -5571,8 +5871,11 @@
       <c r="F102">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>89</v>
       </c>
@@ -5591,8 +5894,11 @@
       <c r="F103">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>90</v>
       </c>
@@ -5611,8 +5917,11 @@
       <c r="F104">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>91</v>
       </c>
@@ -5631,8 +5940,11 @@
       <c r="F105">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>92</v>
       </c>
@@ -5651,8 +5963,11 @@
       <c r="F106">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G106">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>93</v>
       </c>
@@ -5671,8 +5986,11 @@
       <c r="F107">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G107">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>94</v>
       </c>
@@ -5691,8 +6009,11 @@
       <c r="F108">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G108">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>95</v>
       </c>
@@ -5711,8 +6032,11 @@
       <c r="F109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G109">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>96</v>
       </c>
@@ -5731,8 +6055,11 @@
       <c r="F110">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G110">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>97</v>
       </c>
@@ -5751,8 +6078,11 @@
       <c r="F111">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G111">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>98</v>
       </c>
@@ -5771,8 +6101,11 @@
       <c r="F112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G112">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>99</v>
       </c>
@@ -5791,8 +6124,11 @@
       <c r="F113">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>100</v>
       </c>
@@ -5811,8 +6147,11 @@
       <c r="F114">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>101</v>
       </c>
@@ -5831,8 +6170,11 @@
       <c r="F115">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>102</v>
       </c>
@@ -5851,8 +6193,11 @@
       <c r="F116">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G116">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>103</v>
       </c>
@@ -5871,8 +6216,11 @@
       <c r="F117">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G117">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>104</v>
       </c>
@@ -5891,8 +6239,11 @@
       <c r="F118">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G118">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>105</v>
       </c>
@@ -5911,8 +6262,11 @@
       <c r="F119">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G119">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>106</v>
       </c>
@@ -5931,8 +6285,11 @@
       <c r="F120">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G120">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>107</v>
       </c>
@@ -5951,8 +6308,11 @@
       <c r="F121">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G121">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>108</v>
       </c>
@@ -5971,8 +6331,11 @@
       <c r="F122">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G122">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>109</v>
       </c>
@@ -5991,8 +6354,11 @@
       <c r="F123">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G123">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>110</v>
       </c>
@@ -6011,8 +6377,11 @@
       <c r="F124">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G124">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>111</v>
       </c>
@@ -6031,8 +6400,11 @@
       <c r="F125">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G125">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>112</v>
       </c>
@@ -6051,8 +6423,11 @@
       <c r="F126">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G126">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>113</v>
       </c>
@@ -6071,8 +6446,11 @@
       <c r="F127">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G127">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>114</v>
       </c>
@@ -6091,8 +6469,11 @@
       <c r="F128">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G128">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>115</v>
       </c>
@@ -6111,8 +6492,11 @@
       <c r="F129">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G129">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>116</v>
       </c>
@@ -6131,8 +6515,11 @@
       <c r="F130">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>117</v>
       </c>
@@ -6151,8 +6538,11 @@
       <c r="F131">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>118</v>
       </c>
@@ -6171,8 +6561,11 @@
       <c r="F132">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>119</v>
       </c>
@@ -6191,8 +6584,11 @@
       <c r="F133">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G133">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>120</v>
       </c>
@@ -6211,8 +6607,11 @@
       <c r="F134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G134">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>121</v>
       </c>
@@ -6231,8 +6630,11 @@
       <c r="F135">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>122</v>
       </c>
@@ -6251,8 +6653,11 @@
       <c r="F136">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>123</v>
       </c>
@@ -6271,8 +6676,11 @@
       <c r="F137">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>124</v>
       </c>
@@ -6291,8 +6699,11 @@
       <c r="F138">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G138">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>125</v>
       </c>
@@ -6311,8 +6722,11 @@
       <c r="F139">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>126</v>
       </c>
@@ -6331,8 +6745,11 @@
       <c r="F140">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>127</v>
       </c>
@@ -6351,8 +6768,11 @@
       <c r="F141">
         <v>9</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>128</v>
       </c>
@@ -6371,8 +6791,11 @@
       <c r="F142">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G142">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>129</v>
       </c>
@@ -6391,8 +6814,11 @@
       <c r="F143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>130</v>
       </c>
@@ -6411,8 +6837,11 @@
       <c r="F144">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G144">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>131</v>
       </c>
@@ -6431,8 +6860,11 @@
       <c r="F145">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G145">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>132</v>
       </c>
@@ -6451,8 +6883,11 @@
       <c r="F146">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G146">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>133</v>
       </c>
@@ -6471,8 +6906,11 @@
       <c r="F147">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G147">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>134</v>
       </c>
@@ -6491,8 +6929,11 @@
       <c r="F148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G148">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>135</v>
       </c>
@@ -6511,8 +6952,11 @@
       <c r="F149">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G149">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>136</v>
       </c>
@@ -6531,8 +6975,11 @@
       <c r="F150">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G150">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>137</v>
       </c>
@@ -6551,8 +6998,11 @@
       <c r="F151">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G151">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>138</v>
       </c>
@@ -6571,8 +7021,11 @@
       <c r="F152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G152">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>139</v>
       </c>
@@ -6591,8 +7044,11 @@
       <c r="F153">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G153">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>140</v>
       </c>
@@ -6611,8 +7067,11 @@
       <c r="F154">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G154">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>141</v>
       </c>
@@ -6631,8 +7090,11 @@
       <c r="F155">
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G155">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>142</v>
       </c>
@@ -6651,8 +7113,11 @@
       <c r="F156">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G156">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>143</v>
       </c>
@@ -6671,8 +7136,11 @@
       <c r="F157">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G157">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>144</v>
       </c>
@@ -6691,8 +7159,11 @@
       <c r="F158">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G158">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>145</v>
       </c>
@@ -6711,8 +7182,11 @@
       <c r="F159">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G159">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>146</v>
       </c>
@@ -6731,8 +7205,11 @@
       <c r="F160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>147</v>
       </c>
@@ -6751,8 +7228,11 @@
       <c r="F161">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>148</v>
       </c>
@@ -6771,8 +7251,11 @@
       <c r="F162">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>149</v>
       </c>
@@ -6791,8 +7274,11 @@
       <c r="F163">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>150</v>
       </c>
@@ -6811,8 +7297,11 @@
       <c r="F164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>151</v>
       </c>
@@ -6831,8 +7320,11 @@
       <c r="F165">
         <v>9</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G165">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>152</v>
       </c>
@@ -6851,8 +7343,11 @@
       <c r="F166">
         <v>9</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G166">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>153</v>
       </c>
@@ -6871,8 +7366,11 @@
       <c r="F167">
         <v>9</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G167">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>154</v>
       </c>
@@ -6891,8 +7389,11 @@
       <c r="F168">
         <v>9</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>155</v>
       </c>
@@ -6911,8 +7412,11 @@
       <c r="F169">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>156</v>
       </c>
@@ -6931,8 +7435,11 @@
       <c r="F170">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>157</v>
       </c>
@@ -6951,8 +7458,11 @@
       <c r="F171">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>158</v>
       </c>
@@ -6971,8 +7481,11 @@
       <c r="F172">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>159</v>
       </c>
@@ -6991,8 +7504,11 @@
       <c r="F173">
         <v>9</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>160</v>
       </c>
@@ -7011,8 +7527,11 @@
       <c r="F174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G174">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>161</v>
       </c>
@@ -7031,8 +7550,11 @@
       <c r="F175">
         <v>9</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>162</v>
       </c>
@@ -7051,8 +7573,11 @@
       <c r="F176">
         <v>9</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G176">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>163</v>
       </c>
@@ -7071,8 +7596,11 @@
       <c r="F177">
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G177">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>164</v>
       </c>
@@ -7091,8 +7619,11 @@
       <c r="F178">
         <v>9</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>165</v>
       </c>
@@ -7111,8 +7642,11 @@
       <c r="F179">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>166</v>
       </c>
@@ -7131,8 +7665,11 @@
       <c r="F180">
         <v>9</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G180">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>167</v>
       </c>
@@ -7151,8 +7688,11 @@
       <c r="F181">
         <v>9</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G181">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>168</v>
       </c>
@@ -7171,8 +7711,11 @@
       <c r="F182">
         <v>9</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>169</v>
       </c>
@@ -7191,8 +7734,11 @@
       <c r="F183">
         <v>9</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G183">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>170</v>
       </c>
@@ -7211,8 +7757,11 @@
       <c r="F184">
         <v>9</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G184">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>171</v>
       </c>
@@ -7231,8 +7780,11 @@
       <c r="F185">
         <v>9</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G185">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>172</v>
       </c>
@@ -7251,8 +7803,11 @@
       <c r="F186">
         <v>9</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G186">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>173</v>
       </c>
@@ -7271,8 +7826,11 @@
       <c r="F187">
         <v>9</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G187">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>174</v>
       </c>
@@ -7291,8 +7849,11 @@
       <c r="F188">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G188">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>175</v>
       </c>
@@ -7311,8 +7872,11 @@
       <c r="F189">
         <v>9</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G189">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>176</v>
       </c>
@@ -7331,8 +7895,11 @@
       <c r="F190">
         <v>9</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G190">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>177</v>
       </c>
@@ -7351,8 +7918,11 @@
       <c r="F191">
         <v>9</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G191">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>178</v>
       </c>
@@ -7371,8 +7941,11 @@
       <c r="F192">
         <v>9</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G192">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>179</v>
       </c>
@@ -7391,8 +7964,11 @@
       <c r="F193">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G193">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>180</v>
       </c>
@@ -7411,8 +7987,11 @@
       <c r="F194">
         <v>9</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G194">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>181</v>
       </c>
@@ -7431,8 +8010,11 @@
       <c r="F195">
         <v>9</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G195">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>182</v>
       </c>
@@ -7451,8 +8033,11 @@
       <c r="F196">
         <v>9</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G196">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>183</v>
       </c>
@@ -7471,8 +8056,11 @@
       <c r="F197">
         <v>9</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G197">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>184</v>
       </c>
@@ -7491,8 +8079,11 @@
       <c r="F198">
         <v>9</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G198">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>185</v>
       </c>
@@ -7511,8 +8102,11 @@
       <c r="F199">
         <v>9</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G199">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>186</v>
       </c>
@@ -7531,8 +8125,11 @@
       <c r="F200">
         <v>9</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G200">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>187</v>
       </c>
@@ -7551,8 +8148,11 @@
       <c r="F201">
         <v>9</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G201">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>188</v>
       </c>
@@ -7571,8 +8171,11 @@
       <c r="F202">
         <v>9</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G202">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>189</v>
       </c>
@@ -7591,8 +8194,11 @@
       <c r="F203">
         <v>9</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G203">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>190</v>
       </c>
@@ -7611,8 +8217,11 @@
       <c r="F204">
         <v>9</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G204">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>191</v>
       </c>
@@ -7631,8 +8240,11 @@
       <c r="F205">
         <v>9</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G205">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>192</v>
       </c>
@@ -7651,8 +8263,11 @@
       <c r="F206">
         <v>9</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G206">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>193</v>
       </c>
@@ -7671,8 +8286,11 @@
       <c r="F207">
         <v>9</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G207">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>194</v>
       </c>
@@ -7691,8 +8309,11 @@
       <c r="F208">
         <v>9</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G208">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>195</v>
       </c>
@@ -7711,8 +8332,11 @@
       <c r="F209">
         <v>9</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G209">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>196</v>
       </c>
@@ -7731,8 +8355,11 @@
       <c r="F210">
         <v>9</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G210">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>197</v>
       </c>
@@ -7751,8 +8378,11 @@
       <c r="F211">
         <v>9</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G211">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>198</v>
       </c>
@@ -7771,8 +8401,11 @@
       <c r="F212">
         <v>9</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G212">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>199</v>
       </c>
@@ -7791,8 +8424,11 @@
       <c r="F213">
         <v>9</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G213">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>200</v>
       </c>
@@ -7811,8 +8447,11 @@
       <c r="F214">
         <v>9</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G214">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>201</v>
       </c>
@@ -7831,8 +8470,11 @@
       <c r="F215">
         <v>9</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G215">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>202</v>
       </c>
@@ -7851,8 +8493,11 @@
       <c r="F216">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G216">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>203</v>
       </c>
@@ -7871,8 +8516,11 @@
       <c r="F217">
         <v>9</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G217">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>204</v>
       </c>
@@ -7891,8 +8539,11 @@
       <c r="F218">
         <v>9</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G218">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>205</v>
       </c>
@@ -7911,8 +8562,11 @@
       <c r="F219">
         <v>9</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G219">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>206</v>
       </c>
@@ -7931,8 +8585,11 @@
       <c r="F220">
         <v>9</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G220">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>207</v>
       </c>
@@ -7951,8 +8608,11 @@
       <c r="F221">
         <v>9</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G221">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>208</v>
       </c>
@@ -7971,8 +8631,11 @@
       <c r="F222">
         <v>9</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G222">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>209</v>
       </c>
@@ -7991,8 +8654,11 @@
       <c r="F223">
         <v>9</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G223">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>210</v>
       </c>
@@ -8011,8 +8677,11 @@
       <c r="F224">
         <v>9</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G224">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>211</v>
       </c>
@@ -8031,8 +8700,11 @@
       <c r="F225">
         <v>9</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G225">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>212</v>
       </c>
@@ -8051,8 +8723,11 @@
       <c r="F226">
         <v>9</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G226">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>213</v>
       </c>
@@ -8071,8 +8746,11 @@
       <c r="F227">
         <v>9</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G227">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>214</v>
       </c>
@@ -8091,8 +8769,11 @@
       <c r="F228">
         <v>9</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G228">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>215</v>
       </c>
@@ -8111,8 +8792,11 @@
       <c r="F229">
         <v>9</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G229">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>216</v>
       </c>
@@ -8131,8 +8815,11 @@
       <c r="F230">
         <v>9</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G230">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>217</v>
       </c>
@@ -8151,8 +8838,11 @@
       <c r="F231">
         <v>9</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G231">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>218</v>
       </c>
@@ -8171,8 +8861,11 @@
       <c r="F232">
         <v>9</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G232">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>219</v>
       </c>
@@ -8191,8 +8884,11 @@
       <c r="F233">
         <v>9</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G233">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>220</v>
       </c>
@@ -8211,8 +8907,11 @@
       <c r="F234">
         <v>9</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G234">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>221</v>
       </c>
@@ -8231,8 +8930,11 @@
       <c r="F235">
         <v>9</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G235">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>222</v>
       </c>
@@ -8251,8 +8953,11 @@
       <c r="F236">
         <v>9</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G236">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>223</v>
       </c>
@@ -8271,8 +8976,11 @@
       <c r="F237">
         <v>9</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G237">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>224</v>
       </c>
@@ -8291,8 +8999,11 @@
       <c r="F238">
         <v>9</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G238">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>225</v>
       </c>
@@ -8311,8 +9022,11 @@
       <c r="F239">
         <v>9</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G239">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>226</v>
       </c>
@@ -8331,8 +9045,11 @@
       <c r="F240">
         <v>9</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G240">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>227</v>
       </c>
@@ -8351,8 +9068,11 @@
       <c r="F241">
         <v>9</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G241">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>228</v>
       </c>
@@ -8371,8 +9091,11 @@
       <c r="F242">
         <v>9</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G242">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>229</v>
       </c>
@@ -8391,8 +9114,11 @@
       <c r="F243">
         <v>9</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G243">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>230</v>
       </c>
@@ -8411,8 +9137,11 @@
       <c r="F244">
         <v>9</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G244">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>231</v>
       </c>
@@ -8431,8 +9160,11 @@
       <c r="F245">
         <v>9</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G245">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>232</v>
       </c>
@@ -8451,8 +9183,11 @@
       <c r="F246">
         <v>9</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G246">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>233</v>
       </c>
@@ -8471,8 +9206,11 @@
       <c r="F247">
         <v>9</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G247">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>234</v>
       </c>
@@ -8491,8 +9229,11 @@
       <c r="F248">
         <v>9</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G248">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>235</v>
       </c>
@@ -8511,8 +9252,11 @@
       <c r="F249">
         <v>9</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G249">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>236</v>
       </c>
@@ -8531,8 +9275,11 @@
       <c r="F250">
         <v>9</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G250">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>237</v>
       </c>
@@ -8551,8 +9298,11 @@
       <c r="F251">
         <v>9</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G251">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>238</v>
       </c>
@@ -8571,8 +9321,11 @@
       <c r="F252">
         <v>9</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G252">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>239</v>
       </c>
@@ -8591,8 +9344,11 @@
       <c r="F253">
         <v>9</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G253">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>240</v>
       </c>
@@ -8611,8 +9367,11 @@
       <c r="F254">
         <v>9</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G254">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>241</v>
       </c>
@@ -8631,8 +9390,11 @@
       <c r="F255">
         <v>9</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G255">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>242</v>
       </c>
@@ -8651,8 +9413,11 @@
       <c r="F256">
         <v>9</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G256">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>243</v>
       </c>
@@ -8671,8 +9436,11 @@
       <c r="F257">
         <v>9</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G257">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>244</v>
       </c>
@@ -8691,8 +9459,11 @@
       <c r="F258">
         <v>9</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G258">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>245</v>
       </c>
@@ -8711,8 +9482,11 @@
       <c r="F259">
         <v>9</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G259">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>246</v>
       </c>
@@ -8731,8 +9505,11 @@
       <c r="F260">
         <v>9</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G260">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>247</v>
       </c>
@@ -8751,8 +9528,11 @@
       <c r="F261">
         <v>9</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G261">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>248</v>
       </c>
@@ -8771,8 +9551,11 @@
       <c r="F262">
         <v>9</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G262">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>249</v>
       </c>
@@ -8791,8 +9574,11 @@
       <c r="F263">
         <v>9</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G263">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>250</v>
       </c>
@@ -8811,8 +9597,11 @@
       <c r="F264">
         <v>9</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G264">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>251</v>
       </c>
@@ -8831,8 +9620,11 @@
       <c r="F265">
         <v>9</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G265">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>252</v>
       </c>
@@ -8851,8 +9643,11 @@
       <c r="F266">
         <v>9</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G266">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>253</v>
       </c>
@@ -8871,8 +9666,11 @@
       <c r="F267">
         <v>9</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G267">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>254</v>
       </c>
@@ -8891,8 +9689,11 @@
       <c r="F268">
         <v>9</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G268">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>255</v>
       </c>
@@ -8911,8 +9712,11 @@
       <c r="F269">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G269">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>256</v>
       </c>
@@ -8931,8 +9735,11 @@
       <c r="F270">
         <v>9</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G270">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>257</v>
       </c>
@@ -8951,8 +9758,11 @@
       <c r="F271">
         <v>9</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G271">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>258</v>
       </c>
@@ -8971,8 +9781,11 @@
       <c r="F272">
         <v>9</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G272">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>259</v>
       </c>
@@ -8991,8 +9804,11 @@
       <c r="F273">
         <v>9</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G273">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>260</v>
       </c>
@@ -9011,8 +9827,11 @@
       <c r="F274">
         <v>9</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G274">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>261</v>
       </c>
@@ -9031,8 +9850,11 @@
       <c r="F275">
         <v>9</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G275">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>262</v>
       </c>
@@ -9051,8 +9873,11 @@
       <c r="F276">
         <v>9</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G276">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>263</v>
       </c>
@@ -9071,8 +9896,11 @@
       <c r="F277">
         <v>9</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G277">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>264</v>
       </c>
@@ -9091,8 +9919,11 @@
       <c r="F278">
         <v>9</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G278">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>265</v>
       </c>
@@ -9111,8 +9942,11 @@
       <c r="F279">
         <v>9</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G279">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>266</v>
       </c>
@@ -9131,8 +9965,11 @@
       <c r="F280">
         <v>9</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G280">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>267</v>
       </c>
@@ -9151,8 +9988,11 @@
       <c r="F281">
         <v>9</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G281">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>268</v>
       </c>
@@ -9171,8 +10011,11 @@
       <c r="F282">
         <v>9</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G282">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>269</v>
       </c>
@@ -9191,8 +10034,11 @@
       <c r="F283">
         <v>9</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G283">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>270</v>
       </c>
@@ -9211,8 +10057,11 @@
       <c r="F284">
         <v>9</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G284">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>271</v>
       </c>
@@ -9231,8 +10080,11 @@
       <c r="F285">
         <v>9</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G285">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>272</v>
       </c>
@@ -9251,8 +10103,11 @@
       <c r="F286">
         <v>9</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G286">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>273</v>
       </c>
@@ -9271,8 +10126,11 @@
       <c r="F287">
         <v>9</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G287">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>274</v>
       </c>
@@ -9291,8 +10149,11 @@
       <c r="F288">
         <v>9</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G288">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>275</v>
       </c>
@@ -9311,8 +10172,11 @@
       <c r="F289">
         <v>9</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G289">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>276</v>
       </c>
@@ -9331,8 +10195,11 @@
       <c r="F290">
         <v>9</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G290">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>277</v>
       </c>
@@ -9350,6 +10217,9 @@
       </c>
       <c r="F291">
         <v>2</v>
+      </c>
+      <c r="G291">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/diccionario_datos_iter_00CSV20_modified.xlsx
+++ b/data/processed/diccionario_datos_iter_00CSV20_modified.xlsx
@@ -3253,16 +3253,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3273,6 +3264,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3594,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/processed/diccionario_datos_iter_00CSV20_modified.xlsx
+++ b/data/processed/diccionario_datos_iter_00CSV20_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://winliveudlap-my.sharepoint.com/personal/marco_bravoml_udlap_mx/Documents/Documents/MDS/Block 6/DSCI 532/DSCI_532_individual-assignment_marcony1/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{0718C61D-7051-43B4-B282-1FB5599B1572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D18DB27E-3226-41DF-8679-8D46D89EBA1D}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{0718C61D-7051-43B4-B282-1FB5599B1572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AEFA38C-F553-4E3A-9FC4-A37C73142C69}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3589,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>41</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>45</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>48</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>80</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>86</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
         <v>92</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>98</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>107</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
         <v>113</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
         <v>116</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
         <v>119</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>122</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>125</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
         <v>128</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
         <v>131</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
         <v>134</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
         <v>140</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
         <v>146</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
         <v>149</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
         <v>152</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>155</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
         <v>158</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
         <v>161</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
         <v>164</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
         <v>167</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
         <v>170</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>173</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>176</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>179</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>182</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>185</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>188</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>191</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>194</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>197</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>200</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>203</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>206</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>209</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>212</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>215</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>218</v>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>221</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>224</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>227</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>230</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>233</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>236</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>239</v>
@@ -5366,7 +5366,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>242</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>245</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>248</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>251</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>254</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>257</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>260</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>263</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>266</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>269</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>272</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>275</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>278</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>281</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>284</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>287</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>290</v>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>293</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>296</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>299</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>302</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>305</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>308</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>311</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>314</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>317</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>320</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>323</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>326</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>329</v>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>332</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>335</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>338</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>341</v>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>344</v>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>347</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>350</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>353</v>
@@ -6240,7 +6240,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>356</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>359</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>362</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>365</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>368</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>371</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>374</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>377</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>380</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>383</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>386</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>389</v>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>392</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>395</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>398</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>401</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>404</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>407</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>410</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B138" t="s">
         <v>413</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B139" t="s">
         <v>416</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B140" t="s">
         <v>419</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>422</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>425</v>
@@ -6792,7 +6792,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>428</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>431</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>434</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B146" t="s">
         <v>437</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B147" t="s">
         <v>440</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B148" t="s">
         <v>443</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B149" t="s">
         <v>446</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
         <v>449</v>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B151" t="s">
         <v>452</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>455</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B153" t="s">
         <v>458</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B154" t="s">
         <v>461</v>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B155" t="s">
         <v>464</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B156" t="s">
         <v>467</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B157" t="s">
         <v>470</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B158" t="s">
         <v>473</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B159" t="s">
         <v>476</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>479</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>482</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>485</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>488</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>491</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>494</v>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>497</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>500</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>503</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>506</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>509</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>512</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>515</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>518</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>521</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>524</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>527</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>530</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>533</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>536</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>539</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>542</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>545</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>548</v>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>551</v>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>554</v>
@@ -7781,7 +7781,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>557</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>560</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>563</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>566</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>569</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>572</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>575</v>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>578</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>581</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>584</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>587</v>
@@ -8034,7 +8034,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>590</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>593</v>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>596</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>599</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>602</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>605</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>608</v>
@@ -8195,7 +8195,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>612</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>615</v>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>618</v>
@@ -8264,7 +8264,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>621</v>
@@ -8287,7 +8287,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>624</v>
@@ -8310,7 +8310,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>627</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>630</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>633</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>636</v>
@@ -8402,7 +8402,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>639</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>642</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>645</v>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>648</v>
@@ -8494,7 +8494,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B217" t="s">
         <v>651</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B218" t="s">
         <v>654</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B219" t="s">
         <v>657</v>
@@ -8563,7 +8563,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B220" t="s">
         <v>660</v>
@@ -8586,7 +8586,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B221" t="s">
         <v>663</v>
@@ -8609,7 +8609,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B222" t="s">
         <v>666</v>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B223" t="s">
         <v>669</v>
@@ -8655,7 +8655,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B224" t="s">
         <v>672</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>675</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>678</v>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>681</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>684</v>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>687</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>690</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>693</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>696</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>699</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>702</v>
@@ -8908,7 +8908,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>705</v>
@@ -8931,7 +8931,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>709</v>
@@ -8954,7 +8954,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>712</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B238" t="s">
         <v>715</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B239" t="s">
         <v>718</v>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B240" t="s">
         <v>721</v>
@@ -9046,7 +9046,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B241" t="s">
         <v>724</v>
@@ -9069,7 +9069,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B242" t="s">
         <v>727</v>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B243" t="s">
         <v>730</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B244" t="s">
         <v>733</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B245" t="s">
         <v>736</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B246" t="s">
         <v>739</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B247" t="s">
         <v>742</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B248" t="s">
         <v>745</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B249" t="s">
         <v>748</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B250" t="s">
         <v>751</v>
@@ -9276,7 +9276,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B251" t="s">
         <v>754</v>
@@ -9299,7 +9299,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B252" t="s">
         <v>758</v>
@@ -9322,7 +9322,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B253" t="s">
         <v>761</v>
@@ -9345,7 +9345,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B254" t="s">
         <v>764</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B255" t="s">
         <v>767</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B256" t="s">
         <v>770</v>
@@ -9414,7 +9414,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B257" t="s">
         <v>773</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B258" t="s">
         <v>776</v>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B259" t="s">
         <v>779</v>
@@ -9483,7 +9483,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B260" t="s">
         <v>782</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B261" t="s">
         <v>785</v>
@@ -9529,7 +9529,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B262" t="s">
         <v>788</v>
@@ -9552,7 +9552,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B263" t="s">
         <v>791</v>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B264" t="s">
         <v>794</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B265" t="s">
         <v>797</v>
@@ -9621,7 +9621,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B266" t="s">
         <v>800</v>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B267" t="s">
         <v>803</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B268" t="s">
         <v>806</v>
@@ -9690,7 +9690,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B269" t="s">
         <v>809</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B270" t="s">
         <v>812</v>
@@ -9736,7 +9736,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B271" t="s">
         <v>815</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B272" t="s">
         <v>818</v>
@@ -9782,7 +9782,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B273" t="s">
         <v>821</v>
@@ -9805,7 +9805,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B274" t="s">
         <v>824</v>
@@ -9828,7 +9828,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B275" t="s">
         <v>827</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B276" t="s">
         <v>830</v>
@@ -9874,7 +9874,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B277" t="s">
         <v>833</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B278" t="s">
         <v>836</v>
@@ -9920,7 +9920,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B279" t="s">
         <v>839</v>
@@ -9943,7 +9943,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B280" t="s">
         <v>842</v>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B281" t="s">
         <v>845</v>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B282" t="s">
         <v>848</v>
@@ -10012,7 +10012,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B283" t="s">
         <v>851</v>
@@ -10035,7 +10035,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B284" t="s">
         <v>854</v>
@@ -10058,7 +10058,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B285" t="s">
         <v>857</v>
@@ -10081,7 +10081,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B286" t="s">
         <v>860</v>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B287" t="s">
         <v>863</v>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B288" t="s">
         <v>866</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B289" t="s">
         <v>869</v>
@@ -10173,7 +10173,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B290" t="s">
         <v>872</v>
@@ -10196,7 +10196,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B291" t="s">
         <v>875</v>
